--- a/data/total evaluation.xlsx
+++ b/data/total evaluation.xlsx
@@ -5,27 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shuto\ns3.30\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shuto\workspace\ns-3-allinone\ns3.30\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1921A740-6323-4F4F-9D69-B298D2C90E71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AAA6FB-A2E0-423C-B877-4A26D0D62EA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="31">
   <si>
     <t>PDR</t>
     <phoneticPr fontId="2"/>
@@ -76,10 +84,6 @@
   </si>
   <si>
     <t>β5.5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>protocol</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -144,11 +148,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ff</t>
+    <t>β10.5</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>β50.5</t>
+    <t>PDR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delay</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>overhead</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hop</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -279,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -309,6 +325,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -324,6 +341,3996 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
+              <a:t>PDR</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
+              <a:t>差 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
+              <a:t>shadowing</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
+              <a:t>推移</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13347122038049819"/>
+          <c:y val="0.19700884891918441"/>
+          <c:w val="0.82468430338777987"/>
+          <c:h val="0.65568374926011486"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$22:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$22:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.0816326530609959E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2244897959183987E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2244898000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0816326530609959E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2244897959183015E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8571428571428997E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8571428571428997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-551C-4BD8-891B-ED83724ABC7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$22:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$22:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-1.8367346938775952E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0612244897960106E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9183673000000048E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2857142857142982E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6734693877551017E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.3265306122448961E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.3265306122448961E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-551C-4BD8-891B-ED83724ABC7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$22:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$22:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.8367346938775952E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4897959183674008E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5102041000000046E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5102040816326969E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2857142857143038E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2857142857143038E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4897959183674008E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-551C-4BD8-891B-ED83724ABC7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1188383871"/>
+        <c:axId val="1241643823"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1188383871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+                  <a:t>車両数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1241643823"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1241643823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
+                  <a:t>SIGO - LSGO</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1188383871"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30326662292213474"/>
+          <c:y val="0.92187445319335082"/>
+          <c:w val="0.3767998687664042"/>
+          <c:h val="7.8125546806649168E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="1" i="0"/>
+              <a:t>Delay</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1800" b="1" i="0"/>
+              <a:t>差 推移</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$22:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$22:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0753804421769E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7631428571430082E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5233470000000013E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.9213724489796011E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1581020408159838E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4742244897958997E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4712091836733988E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4671-4005-ACF6-4927279E32E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$22:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$22:$H$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.1496901846453009E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3897008827340046E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0000000000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.6059620181410016E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4309609572399984E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2172629089731027E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9896149497894977E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4671-4005-ACF6-4927279E32E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$22:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$22:$I$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-4.7431529802400424E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4584692824748955E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1176130000000052E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5392381762229695E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1929039763523978E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4411320051830054E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6999999999999997E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4671-4005-ACF6-4927279E32E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1185532671"/>
+        <c:axId val="1234233119"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1185532671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="ja-JP" sz="1800" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>車両数</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.43591041929380819"/>
+              <c:y val="0.79614213797297961"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1234233119"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1234233119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>SIGO - LSGO</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.284080715493819E-2"/>
+              <c:y val="0.35555336336292015"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1185532671"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="2000" b="1"/>
+              <a:t>overhead </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="1"/>
+              <a:t>推移</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$K$22:$K$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$22:$L$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.84217687074830394</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.9887755102040998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.3891156500000008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6231292517007034</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.9146258503402009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7.6377551020409058</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-7.6020408163265998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0709-4216-8E4B-2FC62344D7CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$K$22:$K$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$22:$M$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.21586491739549984</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7135001619694989</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.9487852299999986</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.4792193067703998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.7954567541301998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.4595724003888009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.4952866861030003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0709-4216-8E4B-2FC62344D7CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$K$22:$K$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$22:$N$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.50121477162299755</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8800291545190007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1057418199999987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8088759313202445E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69130223517979772</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.0628036929057956</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.1731049562682969</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0709-4216-8E4B-2FC62344D7CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1236634463"/>
+        <c:axId val="1230596335"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1236634463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="ja-JP" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>車両数</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.48528753178499978"/>
+              <c:y val="0.78333293859956088"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1230596335"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1230596335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>SIGO - LSGO</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1236634463"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>391438</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>130481</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>603728</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>143529</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1046AE9-3F02-4959-9B37-E0CA8447C7C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>495823</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>91336</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>326199</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>117432</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3468A795-6F7F-4C5D-A956-B0A0D489B36A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>430581</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104384</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>313149</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>104383</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB106F82-FD28-43C4-BFAE-1C83B1D46EF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -591,15 +4598,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView tabSelected="1" topLeftCell="G9" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="AE40" sqref="AE40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="9" max="9" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:34">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>7</v>
@@ -607,7 +4618,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
       <c r="F1" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>7</v>
@@ -615,7 +4626,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="4"/>
       <c r="K1" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>7</v>
@@ -623,7 +4634,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="4"/>
       <c r="P1" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>7</v>
@@ -631,7 +4642,7 @@
       <c r="R1" s="3"/>
       <c r="S1" s="4"/>
       <c r="U1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V1" s="3" t="s">
         <v>7</v>
@@ -639,7 +4650,7 @@
       <c r="W1" s="3"/>
       <c r="X1" s="4"/>
       <c r="Z1" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AA1" s="3" t="s">
         <v>7</v>
@@ -647,11 +4658,13 @@
       <c r="AB1" s="3"/>
       <c r="AC1" s="4"/>
       <c r="AE1" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="AF1" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="4"/>
     </row>
     <row r="2" spans="1:34">
       <c r="A2" s="5" t="s">
@@ -744,61 +4757,61 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>0.26734693877551002</v>
+        <v>0.43877551020408101</v>
       </c>
       <c r="C3" s="1">
-        <v>0.58775510204081605</v>
+        <v>0.76938775510204005</v>
       </c>
       <c r="D3" s="6">
-        <v>0.81224489795918298</v>
+        <v>0.90204081632652999</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>0.238775510204081</v>
+        <v>0.33673469387755101</v>
       </c>
       <c r="H3" s="1">
-        <v>0.53877551020408099</v>
+        <v>0.55714285714285705</v>
       </c>
       <c r="I3" s="6">
-        <v>0.80204081632653001</v>
+        <v>0.80816326530612204</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="1">
-        <v>0.22653061224489701</v>
+        <v>0.26734693900000001</v>
       </c>
       <c r="M3" s="1">
-        <v>0.45306122448979502</v>
+        <v>0.58775510200000003</v>
       </c>
       <c r="N3" s="6">
-        <v>0.72448979591836704</v>
+        <v>0.81224489799999999</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="Q3" s="1">
-        <v>0.23469387755102</v>
+        <v>0.238775510204081</v>
       </c>
       <c r="R3" s="1">
-        <v>0.44489795918367298</v>
+        <v>0.53877551020408099</v>
       </c>
       <c r="S3" s="6">
-        <v>0.72653061224489801</v>
+        <v>0.80204081632653001</v>
       </c>
       <c r="U3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="V3" s="1">
-        <v>0.23469387755102</v>
+        <v>0.22653061224489701</v>
       </c>
       <c r="W3" s="1">
-        <v>0.44489795918367298</v>
+        <v>0.45306122448979502</v>
       </c>
       <c r="X3" s="6">
-        <v>0.72653061224489801</v>
+        <v>0.72448979591836704</v>
       </c>
       <c r="Z3" s="5" t="s">
         <v>1</v>
@@ -815,13 +4828,13 @@
       <c r="AE3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AF3" s="10">
-        <v>0.23673469387755</v>
-      </c>
-      <c r="AG3" s="10">
+      <c r="AF3" s="1">
+        <v>0.23469387755102</v>
+      </c>
+      <c r="AG3" s="1">
         <v>0.44489795918367298</v>
       </c>
-      <c r="AH3" s="10">
+      <c r="AH3" s="6">
         <v>0.72653061224489801</v>
       </c>
     </row>
@@ -830,58 +4843,58 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>0.25510204081632598</v>
+        <v>0.43469387755102001</v>
       </c>
       <c r="C4" s="1">
-        <v>0.52857142857142803</v>
+        <v>0.787755102040816</v>
       </c>
       <c r="D4" s="6">
-        <v>0.75714285714285701</v>
+        <v>0.88367346938775404</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="1">
-        <v>0.23469387755102</v>
+        <v>0.32448979591836702</v>
       </c>
       <c r="H4" s="1">
-        <v>0.495918367346938</v>
+        <v>0.52653061224489695</v>
       </c>
       <c r="I4" s="6">
-        <v>0.74693877551020305</v>
+        <v>0.76326530612244803</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="1">
-        <v>0.214285714285714</v>
+        <v>0.255102041</v>
       </c>
       <c r="M4" s="1">
-        <v>0.41632653061224401</v>
+        <v>0.52857142899999998</v>
       </c>
       <c r="N4" s="6">
-        <v>0.681632653061224</v>
+        <v>0.75714285699999995</v>
       </c>
       <c r="P4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="Q4" s="1">
-        <v>0.20612244897959101</v>
+        <v>0.23469387755102</v>
       </c>
       <c r="R4" s="1">
-        <v>0.38163265306122401</v>
+        <v>0.495918367346938</v>
       </c>
       <c r="S4" s="6">
-        <v>0.68367346938775497</v>
+        <v>0.74693877551020305</v>
       </c>
       <c r="U4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="V4" s="1">
-        <v>0.20612244897959101</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="W4" s="1">
-        <v>0.38163265306122401</v>
+        <v>0.41632653061224401</v>
       </c>
       <c r="X4" s="6">
         <v>0.681632653061224</v>
@@ -896,47 +4909,113 @@
         <v>0.38163265306122401</v>
       </c>
       <c r="AC4" s="6">
-        <v>0.681632653061224</v>
+        <v>0.68367346938775497</v>
       </c>
       <c r="AE4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AF4" s="10">
+      <c r="AF4" s="1">
         <v>0.20612244897959101</v>
       </c>
-      <c r="AG4" s="10">
+      <c r="AG4" s="1">
         <v>0.38163265306122401</v>
       </c>
-      <c r="AH4" s="10">
+      <c r="AH4" s="6">
         <v>0.681632653061224</v>
       </c>
     </row>
     <row r="5" spans="1:34">
       <c r="A5" s="5"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="6"/>
+      <c r="B5" s="1">
+        <f>(B3-B4)</f>
+        <v>4.0816326530609959E-3</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" ref="C5:D5" si="0">(C3-C4)</f>
+        <v>-1.8367346938775952E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8367346938775952E-2</v>
+      </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="6"/>
+      <c r="G5" s="1">
+        <f>(G3-G4)</f>
+        <v>1.2244897959183987E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" ref="H5" si="1">(H3-H4)</f>
+        <v>3.0612244897960106E-2</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" ref="I5" si="2">(I3-I4)</f>
+        <v>4.4897959183674008E-2</v>
+      </c>
       <c r="K5" s="5"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="6"/>
+      <c r="L5" s="1">
+        <f>(L3-L4)</f>
+        <v>1.2244898000000004E-2</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" ref="M5" si="3">(M3-M4)</f>
+        <v>5.9183673000000048E-2</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" ref="N5" si="4">(N3-N4)</f>
+        <v>5.5102041000000046E-2</v>
+      </c>
       <c r="P5" s="5"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="6"/>
+      <c r="Q5" s="1">
+        <f>(Q3-Q4)</f>
+        <v>4.0816326530609959E-3</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" ref="R5" si="5">(R3-R4)</f>
+        <v>4.2857142857142982E-2</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" ref="S5" si="6">(S3-S4)</f>
+        <v>5.5102040816326969E-2</v>
+      </c>
       <c r="U5" s="5"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="6"/>
+      <c r="V5" s="1">
+        <f>(V3-V4)</f>
+        <v>1.2244897959183015E-2</v>
+      </c>
+      <c r="W5" s="1">
+        <f t="shared" ref="W5" si="7">(W3-W4)</f>
+        <v>3.6734693877551017E-2</v>
+      </c>
+      <c r="X5" s="1">
+        <f t="shared" ref="X5" si="8">(X3-X4)</f>
+        <v>4.2857142857143038E-2</v>
+      </c>
       <c r="Z5" s="5"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="6"/>
+      <c r="AA5" s="1">
+        <f>(AA3-AA4)</f>
+        <v>2.8571428571428997E-2</v>
+      </c>
+      <c r="AB5" s="1">
+        <f t="shared" ref="AB5" si="9">(AB3-AB4)</f>
+        <v>6.3265306122448961E-2</v>
+      </c>
+      <c r="AC5" s="1">
+        <f t="shared" ref="AC5" si="10">(AC3-AC4)</f>
+        <v>4.2857142857143038E-2</v>
+      </c>
       <c r="AE5" s="5"/>
+      <c r="AF5" s="1">
+        <f>(AF3-AF4)</f>
+        <v>2.8571428571428997E-2</v>
+      </c>
+      <c r="AG5" s="1">
+        <f t="shared" ref="AG5" si="11">(AG3-AG4)</f>
+        <v>6.3265306122448961E-2</v>
+      </c>
+      <c r="AH5" s="1">
+        <f t="shared" ref="AH5" si="12">(AH3-AH4)</f>
+        <v>4.4897959183674008E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:34">
       <c r="A6" s="5" t="s">
@@ -1014,67 +5093,70 @@
       <c r="AE6" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="13"/>
     </row>
     <row r="7" spans="1:34">
       <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>3.5053303061224401E-2</v>
+        <v>3.84649800534499E-2</v>
       </c>
       <c r="C7" s="1">
-        <v>3.0707495942662699E-2</v>
+        <v>4.0319322197926798E-2</v>
       </c>
       <c r="D7" s="6">
-        <v>3.7163736491739499E-2</v>
+        <v>4.0391158041788097E-2</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G7" s="1">
-        <v>3.1564833333333299E-2</v>
+        <v>3.5463778571428503E-2</v>
       </c>
       <c r="H7" s="1">
-        <v>2.85984815597667E-2</v>
+        <v>3.7962518926141803E-2</v>
       </c>
       <c r="I7" s="6">
-        <v>3.6825898914803999E-2</v>
+        <v>4.1127956430191098E-2</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>1</v>
       </c>
       <c r="L7" s="1">
-        <v>3.2161787414965899E-2</v>
+        <v>3.5053303000000001E-2</v>
       </c>
       <c r="M7" s="1">
-        <v>3.66089116375121E-2</v>
+        <v>3.070749E-2</v>
       </c>
       <c r="N7" s="6">
-        <v>4.0012575445416199E-2</v>
+        <v>3.7163736000000003E-2</v>
       </c>
       <c r="P7" s="5" t="s">
         <v>1</v>
       </c>
       <c r="Q7" s="1">
-        <v>3.3939452380952299E-2</v>
+        <v>3.1564833333333299E-2</v>
       </c>
       <c r="R7" s="1">
-        <v>3.6948913249109101E-2</v>
+        <v>2.85984815597667E-2</v>
       </c>
       <c r="S7" s="6">
-        <v>3.9452691690962098E-2</v>
+        <v>3.6825898914803999E-2</v>
       </c>
       <c r="U7" s="5" t="s">
         <v>1</v>
       </c>
       <c r="V7" s="1">
-        <v>3.3939452380952299E-2</v>
+        <v>3.2161787414965899E-2</v>
       </c>
       <c r="W7" s="1">
-        <v>3.6847025494007098E-2</v>
+        <v>3.66089116375121E-2</v>
       </c>
       <c r="X7" s="6">
-        <v>3.9452691690962098E-2</v>
+        <v>4.0012575445416199E-2</v>
       </c>
       <c r="Z7" s="5" t="s">
         <v>1</v>
@@ -1083,7 +5165,7 @@
         <v>3.3939452380952299E-2</v>
       </c>
       <c r="AB7" s="1">
-        <v>3.6847025494007098E-2</v>
+        <v>3.6948913249109101E-2</v>
       </c>
       <c r="AC7" s="6">
         <v>3.9452691690962098E-2</v>
@@ -1091,14 +5173,14 @@
       <c r="AE7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AF7" s="10">
-        <v>3.3915615646258501E-2</v>
-      </c>
-      <c r="AG7" s="10">
+      <c r="AF7" s="1">
+        <v>3.3939452380952299E-2</v>
+      </c>
+      <c r="AG7" s="1">
         <v>3.6847025494007098E-2</v>
       </c>
-      <c r="AH7" s="10">
-        <v>3.9441053935859997E-2</v>
+      <c r="AH7" s="6">
+        <v>3.9452691690962098E-2</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -1106,113 +5188,179 @@
         <v>2</v>
       </c>
       <c r="B8" s="1">
-        <v>3.3529955782312902E-2</v>
+        <v>3.7389599611273E-2</v>
       </c>
       <c r="C8" s="1">
-        <v>3.0661360390346601E-2</v>
+        <v>3.9169632013281497E-2</v>
       </c>
       <c r="D8" s="6">
-        <v>3.4046122538062801E-2</v>
+        <v>4.0865473339812101E-2</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>2</v>
       </c>
       <c r="G8" s="1">
-        <v>3.34862057823129E-2</v>
+        <v>3.4887464285714202E-2</v>
       </c>
       <c r="H8" s="1">
-        <v>2.91590777615808E-2</v>
+        <v>3.6572818043407798E-2</v>
       </c>
       <c r="I8" s="6">
-        <v>3.6171975097181702E-2</v>
+        <v>3.8669487147716203E-2</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>2</v>
       </c>
       <c r="L8" s="1">
-        <v>3.1245977210884301E-2</v>
+        <v>3.3529956E-2</v>
       </c>
       <c r="M8" s="1">
-        <v>3.4177950680272101E-2</v>
+        <v>3.0661359999999999E-2</v>
       </c>
       <c r="N8" s="6">
-        <v>3.7819671469063801E-2</v>
+        <v>3.4046122999999998E-2</v>
       </c>
       <c r="P8" s="5" t="s">
         <v>2</v>
       </c>
       <c r="Q8" s="1">
-        <v>3.04652278911564E-2</v>
+        <v>3.34862057823129E-2</v>
       </c>
       <c r="R8" s="1">
-        <v>3.4731650340135999E-2</v>
+        <v>2.91590777615808E-2</v>
       </c>
       <c r="S8" s="6">
-        <v>3.9208578490443798E-2</v>
+        <v>3.6171975097181702E-2</v>
       </c>
       <c r="U8" s="5" t="s">
         <v>2</v>
       </c>
       <c r="V8" s="1">
-        <v>3.0468243197278901E-2</v>
+        <v>3.1245977210884301E-2</v>
       </c>
       <c r="W8" s="1">
-        <v>3.48574105442176E-2</v>
+        <v>3.4177950680272101E-2</v>
       </c>
       <c r="X8" s="6">
-        <v>3.9405064399092901E-2</v>
+        <v>3.7819671469063801E-2</v>
       </c>
       <c r="Z8" s="5" t="s">
         <v>2</v>
       </c>
       <c r="AA8" s="1">
-        <v>3.0468243197278901E-2</v>
+        <v>3.04652278911564E-2</v>
       </c>
       <c r="AB8" s="1">
-        <v>3.48574105442176E-2</v>
+        <v>3.4731650340135999E-2</v>
       </c>
       <c r="AC8" s="6">
-        <v>3.9405064399092901E-2</v>
+        <v>3.9208578490443798E-2</v>
       </c>
       <c r="AE8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AF8" s="10">
-        <v>3.04070187074829E-2</v>
-      </c>
-      <c r="AG8" s="10">
+      <c r="AF8" s="1">
+        <v>3.0468243197278901E-2</v>
+      </c>
+      <c r="AG8" s="1">
         <v>3.48574105442176E-2</v>
       </c>
-      <c r="AH8" s="10">
+      <c r="AH8" s="6">
         <v>3.9405064399092901E-2</v>
       </c>
     </row>
     <row r="9" spans="1:34">
       <c r="A9" s="5"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="6"/>
+      <c r="B9" s="1">
+        <f>(B7-B8)</f>
+        <v>1.0753804421769E-3</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" ref="C9" si="13">(C7-C8)</f>
+        <v>1.1496901846453009E-3</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" ref="D9" si="14">(D7-D8)</f>
+        <v>-4.7431529802400424E-4</v>
+      </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="6"/>
+      <c r="G9" s="1">
+        <f>(G7-G8)</f>
+        <v>5.7631428571430082E-4</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" ref="H9" si="15">(H7-H8)</f>
+        <v>1.3897008827340046E-3</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" ref="I9" si="16">(I7-I8)</f>
+        <v>2.4584692824748955E-3</v>
+      </c>
       <c r="K9" s="5"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="6"/>
+      <c r="L9" s="1">
+        <f>(L7-L8)</f>
+        <v>1.5233470000000013E-3</v>
+      </c>
+      <c r="M9" s="1">
+        <f>(M7-M8)</f>
+        <v>4.6130000000001864E-5</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" ref="N9" si="17">(N7-N8)</f>
+        <v>3.1176130000000052E-3</v>
+      </c>
       <c r="P9" s="5"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="6"/>
+      <c r="Q9" s="1">
+        <f>(Q7-Q8)</f>
+        <v>-1.9213724489796011E-3</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" ref="R9" si="18">(R7-R8)</f>
+        <v>-5.6059620181410016E-4</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" ref="S9" si="19">(S7-S8)</f>
+        <v>6.5392381762229695E-4</v>
+      </c>
       <c r="U9" s="5"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="6"/>
+      <c r="V9" s="1">
+        <f>(V7-V8)</f>
+        <v>9.1581020408159838E-4</v>
+      </c>
+      <c r="W9" s="1">
+        <f t="shared" ref="W9" si="20">(W7-W8)</f>
+        <v>2.4309609572399984E-3</v>
+      </c>
+      <c r="X9" s="1">
+        <f t="shared" ref="X9" si="21">(X7-X8)</f>
+        <v>2.1929039763523978E-3</v>
+      </c>
       <c r="Z9" s="5"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="6"/>
+      <c r="AA9" s="1">
+        <f>(AA7-AA8)</f>
+        <v>3.4742244897958997E-3</v>
+      </c>
+      <c r="AB9" s="1">
+        <f t="shared" ref="AB9" si="22">(AB7-AB8)</f>
+        <v>2.2172629089731027E-3</v>
+      </c>
+      <c r="AC9" s="1">
+        <f t="shared" ref="AC9" si="23">(AC7-AC8)</f>
+        <v>2.4411320051830054E-4</v>
+      </c>
       <c r="AE9" s="5"/>
+      <c r="AF9" s="1">
+        <f>(AF7-AF8)</f>
+        <v>3.4712091836733988E-3</v>
+      </c>
+      <c r="AG9" s="1">
+        <f t="shared" ref="AG9" si="24">(AG7-AG8)</f>
+        <v>1.9896149497894977E-3</v>
+      </c>
+      <c r="AH9" s="1">
+        <f t="shared" ref="AH9" si="25">(AH7-AH8)</f>
+        <v>4.7627291869196953E-5</v>
+      </c>
     </row>
     <row r="10" spans="1:34">
       <c r="A10" s="5" t="s">
@@ -1290,91 +5438,94 @@
       <c r="AE10" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="AF10" s="12"/>
+      <c r="AG10" s="12"/>
+      <c r="AH10" s="13"/>
     </row>
     <row r="11" spans="1:34">
       <c r="A11" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="1">
-        <v>57.411904761904701</v>
+        <v>42.052380952380901</v>
       </c>
       <c r="C11" s="1">
-        <v>27.9901603498542</v>
+        <v>32.261491739552902</v>
       </c>
       <c r="D11" s="6">
-        <v>26.1035471331389</v>
+        <v>31.269160997732399</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G11" s="1">
-        <v>61.503401360544203</v>
+        <v>46.145578231292497</v>
       </c>
       <c r="H11" s="1">
-        <v>27.473955296404199</v>
+        <v>39.906243926141798</v>
       </c>
       <c r="I11" s="6">
-        <v>26.155555555555502</v>
+        <v>32.301036605118199</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>1</v>
       </c>
       <c r="L11" s="1">
-        <v>60.571428571428498</v>
+        <v>57.411904759999999</v>
       </c>
       <c r="M11" s="1">
-        <v>42.105223517978601</v>
+        <v>27.99016035</v>
       </c>
       <c r="N11" s="6">
-        <v>34.568270165208901</v>
+        <v>26.103547129999999</v>
       </c>
       <c r="P11" s="5" t="s">
         <v>1</v>
       </c>
       <c r="Q11" s="1">
-        <v>57.690476190476097</v>
+        <v>61.503401360544203</v>
       </c>
       <c r="R11" s="1">
-        <v>41.9373663751214</v>
+        <v>27.473955296404199</v>
       </c>
       <c r="S11" s="6">
-        <v>33.054243602202703</v>
+        <v>26.155555555555502</v>
       </c>
       <c r="U11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="V11" s="10">
-        <v>57.690476190476097</v>
-      </c>
-      <c r="W11" s="10">
-        <v>41.983284742468399</v>
-      </c>
-      <c r="X11" s="10">
-        <v>33.054243602202703</v>
+      <c r="V11" s="1">
+        <v>60.571428571428498</v>
+      </c>
+      <c r="W11" s="1">
+        <v>42.105223517978601</v>
+      </c>
+      <c r="X11" s="6">
+        <v>34.568270165208901</v>
       </c>
       <c r="Z11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AA11" s="10">
+      <c r="AA11" s="1">
         <v>57.690476190476097</v>
       </c>
-      <c r="AB11" s="10">
-        <v>41.983284742468399</v>
-      </c>
-      <c r="AC11" s="10">
+      <c r="AB11" s="1">
+        <v>41.9373663751214</v>
+      </c>
+      <c r="AC11" s="6">
         <v>33.054243602202703</v>
       </c>
       <c r="AE11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AF11" s="10">
-        <v>56.159863945578202</v>
-      </c>
-      <c r="AG11" s="10">
+      <c r="AF11" s="1">
+        <v>57.690476190476097</v>
+      </c>
+      <c r="AG11" s="1">
         <v>41.983284742468399</v>
       </c>
-      <c r="AH11" s="10">
-        <v>33.0593456430191</v>
+      <c r="AH11" s="6">
+        <v>33.054243602202703</v>
       </c>
     </row>
     <row r="12" spans="1:34">
@@ -1382,113 +5533,179 @@
         <v>2</v>
       </c>
       <c r="B12" s="1">
-        <v>58.801020408163197</v>
+        <v>41.210204081632597</v>
       </c>
       <c r="C12" s="1">
-        <v>29.938945578231198</v>
+        <v>32.045626822157402</v>
       </c>
       <c r="D12" s="6">
-        <v>24.997805312601201</v>
+        <v>30.767946226109402</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>2</v>
       </c>
       <c r="G12" s="1">
-        <v>59.880272108843499</v>
+        <v>50.134353741496597</v>
       </c>
       <c r="H12" s="1">
-        <v>31.953174603174599</v>
+        <v>38.192743764172299</v>
       </c>
       <c r="I12" s="6">
-        <v>26.107466796242299</v>
+        <v>30.421007450599198</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>2</v>
       </c>
       <c r="L12" s="1">
-        <v>64.486054421768699</v>
+        <v>58.80102041</v>
       </c>
       <c r="M12" s="1">
-        <v>45.900680272108801</v>
+        <v>29.938945579999999</v>
       </c>
       <c r="N12" s="6">
-        <v>33.876967930029103</v>
+        <v>24.99780531</v>
       </c>
       <c r="P12" s="5" t="s">
         <v>2</v>
       </c>
       <c r="Q12" s="1">
-        <v>65.328231292517003</v>
+        <v>59.880272108843499</v>
       </c>
       <c r="R12" s="1">
-        <v>47.396938775510201</v>
+        <v>31.953174603174599</v>
       </c>
       <c r="S12" s="6">
-        <v>34.117047295108499</v>
+        <v>26.107466796242299</v>
       </c>
       <c r="U12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="V12" s="10">
-        <v>65.292517006802697</v>
-      </c>
-      <c r="W12" s="10">
-        <v>47.478571428571399</v>
-      </c>
-      <c r="X12" s="10">
-        <v>34.227348558471</v>
+      <c r="V12" s="1">
+        <v>64.486054421768699</v>
+      </c>
+      <c r="W12" s="1">
+        <v>45.900680272108801</v>
+      </c>
+      <c r="X12" s="6">
+        <v>33.876967930029103</v>
       </c>
       <c r="Z12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AA12" s="10">
-        <v>65.292517006802697</v>
-      </c>
-      <c r="AB12" s="10">
-        <v>47.478571428571399</v>
-      </c>
-      <c r="AC12" s="10">
-        <v>34.227348558471</v>
+      <c r="AA12" s="1">
+        <v>65.328231292517003</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>47.396938775510201</v>
+      </c>
+      <c r="AC12" s="6">
+        <v>34.117047295108499</v>
       </c>
       <c r="AE12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AF12" s="10">
-        <v>65.144557823129205</v>
-      </c>
-      <c r="AG12" s="10">
+      <c r="AF12" s="1">
+        <v>65.292517006802697</v>
+      </c>
+      <c r="AG12" s="1">
         <v>47.478571428571399</v>
       </c>
-      <c r="AH12" s="10">
+      <c r="AH12" s="6">
         <v>34.227348558471</v>
       </c>
     </row>
     <row r="13" spans="1:34">
       <c r="A13" s="5"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="6"/>
+      <c r="B13" s="1">
+        <f>(B11-B12)</f>
+        <v>0.84217687074830394</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" ref="C13" si="26">(C11-C12)</f>
+        <v>0.21586491739549984</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" ref="D13" si="27">(D11-D12)</f>
+        <v>0.50121477162299755</v>
+      </c>
       <c r="F13" s="5"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="6"/>
+      <c r="G13" s="1">
+        <f>(G11-G12)</f>
+        <v>-3.9887755102040998</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" ref="H13" si="28">(H11-H12)</f>
+        <v>1.7135001619694989</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" ref="I13" si="29">(I11-I12)</f>
+        <v>1.8800291545190007</v>
+      </c>
       <c r="K13" s="5"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="6"/>
+      <c r="L13" s="1">
+        <f>(L11-L12)</f>
+        <v>-1.3891156500000008</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" ref="M13" si="30">(M11-M12)</f>
+        <v>-1.9487852299999986</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" ref="N13" si="31">(N11-N12)</f>
+        <v>1.1057418199999987</v>
+      </c>
       <c r="P13" s="5"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="6"/>
+      <c r="Q13" s="1">
+        <f>(Q11-Q12)</f>
+        <v>1.6231292517007034</v>
+      </c>
+      <c r="R13" s="1">
+        <f t="shared" ref="R13" si="32">(R11-R12)</f>
+        <v>-4.4792193067703998</v>
+      </c>
+      <c r="S13" s="1">
+        <f t="shared" ref="S13" si="33">(S11-S12)</f>
+        <v>4.8088759313202445E-2</v>
+      </c>
       <c r="U13" s="5"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="6"/>
+      <c r="V13" s="1">
+        <f>(V11-V12)</f>
+        <v>-3.9146258503402009</v>
+      </c>
+      <c r="W13" s="1">
+        <f t="shared" ref="W13" si="34">(W11-W12)</f>
+        <v>-3.7954567541301998</v>
+      </c>
+      <c r="X13" s="1">
+        <f t="shared" ref="X13" si="35">(X11-X12)</f>
+        <v>0.69130223517979772</v>
+      </c>
       <c r="Z13" s="5"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="6"/>
+      <c r="AA13" s="1">
+        <f>(AA11-AA12)</f>
+        <v>-7.6377551020409058</v>
+      </c>
+      <c r="AB13" s="1">
+        <f t="shared" ref="AB13" si="36">(AB11-AB12)</f>
+        <v>-5.4595724003888009</v>
+      </c>
+      <c r="AC13" s="1">
+        <f t="shared" ref="AC13" si="37">(AC11-AC12)</f>
+        <v>-1.0628036929057956</v>
+      </c>
       <c r="AE13" s="5"/>
+      <c r="AF13" s="1">
+        <f>(AF11-AF12)</f>
+        <v>-7.6020408163265998</v>
+      </c>
+      <c r="AG13" s="1">
+        <f t="shared" ref="AG13" si="38">(AG11-AG12)</f>
+        <v>-5.4952866861030003</v>
+      </c>
+      <c r="AH13" s="1">
+        <f t="shared" ref="AH13" si="39">(AH11-AH12)</f>
+        <v>-1.1731049562682969</v>
+      </c>
     </row>
     <row r="14" spans="1:34">
       <c r="A14" s="5" t="s">
@@ -1566,67 +5783,70 @@
       <c r="AE14" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="AF14" s="12"/>
+      <c r="AG14" s="12"/>
+      <c r="AH14" s="13"/>
     </row>
     <row r="15" spans="1:34">
       <c r="A15" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="1">
-        <v>13.241496598639401</v>
+        <v>13.8174684159378</v>
       </c>
       <c r="C15" s="1">
-        <v>13.8838678328474</v>
+        <v>13.950445416261701</v>
       </c>
       <c r="D15" s="6">
-        <v>13.969549724651699</v>
+        <v>13.870481049562599</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G15" s="1">
-        <v>13.382653061224399</v>
+        <v>13.6051020408163</v>
       </c>
       <c r="H15" s="1">
-        <v>11.091666666666599</v>
+        <v>13.815646258503399</v>
       </c>
       <c r="I15" s="6">
-        <v>12.5670472951085</v>
+        <v>13.9909135082604</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>1</v>
       </c>
       <c r="L15" s="1">
-        <v>12.806122448979499</v>
+        <v>13.50408163</v>
       </c>
       <c r="M15" s="1">
-        <v>13.9092565597667</v>
+        <v>11.333187560000001</v>
       </c>
       <c r="N15" s="6">
-        <v>14.017047295108499</v>
+        <v>12.74271137</v>
       </c>
       <c r="P15" s="5" t="s">
         <v>1</v>
       </c>
       <c r="Q15" s="1">
-        <v>13.241496598639401</v>
+        <v>13.382653061224399</v>
       </c>
       <c r="R15" s="1">
-        <v>13.8838678328474</v>
+        <v>11.091666666666599</v>
       </c>
       <c r="S15" s="6">
-        <v>13.969549724651699</v>
+        <v>12.5670472951085</v>
       </c>
       <c r="U15" s="5" t="s">
         <v>1</v>
       </c>
       <c r="V15" s="1">
-        <v>13.241496598639401</v>
+        <v>12.806122448979499</v>
       </c>
       <c r="W15" s="1">
-        <v>13.8838678328474</v>
+        <v>13.9092565597667</v>
       </c>
       <c r="X15" s="6">
-        <v>13.969549724651699</v>
+        <v>14.017047295108499</v>
       </c>
       <c r="Z15" s="5" t="s">
         <v>1</v>
@@ -1643,143 +5863,203 @@
       <c r="AE15" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AF15" s="10">
-        <v>13.190476190476099</v>
-      </c>
-      <c r="AG15" s="10">
+      <c r="AF15" s="1">
+        <v>13.241496598639401</v>
+      </c>
+      <c r="AG15" s="1">
         <v>13.8838678328474</v>
       </c>
-      <c r="AH15" s="10">
-        <v>13.966998704243601</v>
+      <c r="AH15" s="6">
+        <v>13.969549724651699</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="18.899999999999999" thickBot="1">
+    <row r="16" spans="1:34" ht="19.5" thickBot="1">
       <c r="A16" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="8">
-        <v>13.1961150865239</v>
+        <v>13.6958074995595</v>
       </c>
       <c r="C16" s="8">
-        <v>11.7806960554095</v>
+        <v>13.8640589664699</v>
       </c>
       <c r="D16" s="9">
-        <v>12.7339877665872</v>
+        <v>14.157869726862</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>2</v>
       </c>
       <c r="G16" s="8">
-        <v>13.2732365967988</v>
+        <v>13.271939248642999</v>
       </c>
       <c r="H16" s="8">
-        <v>11.4290144705095</v>
+        <v>13.467475901532101</v>
       </c>
       <c r="I16" s="9">
-        <v>12.857333867001399</v>
+        <v>14.0353297356721</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>2</v>
       </c>
       <c r="L16" s="8">
-        <v>12.4444888367894</v>
+        <v>13.196115089999999</v>
       </c>
       <c r="M16" s="8">
-        <v>13.5509455407419</v>
+        <v>11.78069606</v>
       </c>
       <c r="N16" s="9">
-        <v>14.077542196196701</v>
+        <v>12.733987770000001</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>2</v>
       </c>
       <c r="Q16" s="8">
-        <v>12.227314182536499</v>
+        <v>13.2732365967988</v>
       </c>
       <c r="R16" s="8">
-        <v>13.5457492671786</v>
+        <v>11.4290144705095</v>
       </c>
       <c r="S16" s="9">
-        <v>14.161284323472101</v>
+        <v>12.857333867001399</v>
       </c>
       <c r="U16" s="7" t="s">
         <v>2</v>
       </c>
       <c r="V16" s="8">
-        <v>12.2348030911434</v>
+        <v>12.4444888367894</v>
       </c>
       <c r="W16" s="8">
-        <v>13.5502489333324</v>
+        <v>13.5509455407419</v>
       </c>
       <c r="X16" s="9">
-        <v>14.1640421833728</v>
+        <v>14.077542196196701</v>
       </c>
       <c r="Z16" s="7" t="s">
         <v>2</v>
       </c>
       <c r="AA16" s="8">
-        <v>12.2348030911434</v>
+        <v>12.227314182536499</v>
       </c>
       <c r="AB16" s="8">
-        <v>13.5502489333324</v>
+        <v>13.5457492671786</v>
       </c>
       <c r="AC16" s="9">
-        <v>14.1640421833728</v>
+        <v>14.161284323472101</v>
       </c>
       <c r="AE16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="AF16" s="10">
-        <v>12.236951318855599</v>
-      </c>
-      <c r="AG16" s="10">
-        <v>13.5491939658909</v>
-      </c>
-      <c r="AH16" s="10">
+      <c r="AF16" s="8">
+        <v>12.2348030911434</v>
+      </c>
+      <c r="AG16" s="8">
+        <v>13.5502489333324</v>
+      </c>
+      <c r="AH16" s="9">
         <v>14.1640421833728</v>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="18.899999999999999" thickBot="1">
-      <c r="G18" s="12" t="s">
-        <v>18</v>
-      </c>
+    <row r="17" spans="1:34">
+      <c r="B17" s="1">
+        <f>(B15-B16)</f>
+        <v>0.12166091637829979</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" ref="C17:D17" si="40">(C15-C16)</f>
+        <v>8.6386449791801212E-2</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="40"/>
+        <v>-0.28738867729940054</v>
+      </c>
+      <c r="G17" s="1">
+        <f>(G15-G16)</f>
+        <v>0.33316279217330091</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" ref="H17" si="41">(H15-H16)</f>
+        <v>0.34817035697129839</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" ref="I17" si="42">(I15-I16)</f>
+        <v>-4.4416227411700149E-2</v>
+      </c>
+      <c r="L17" s="1">
+        <f>(L15-L16)</f>
+        <v>0.30796654000000068</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" ref="M17" si="43">(M15-M16)</f>
+        <v>-0.44750849999999964</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" ref="N17" si="44">(N15-N16)</f>
+        <v>8.7235999999997205E-3</v>
+      </c>
+      <c r="Q17" s="1">
+        <f>(Q15-Q16)</f>
+        <v>0.10941646442559971</v>
+      </c>
+      <c r="R17" s="1">
+        <f t="shared" ref="R17" si="45">(R15-R16)</f>
+        <v>-0.33734780384290097</v>
+      </c>
+      <c r="S17" s="1">
+        <f t="shared" ref="S17" si="46">(S15-S16)</f>
+        <v>-0.2902865718928993</v>
+      </c>
+      <c r="V17" s="1">
+        <f>(V15-V16)</f>
+        <v>0.36163361219009893</v>
+      </c>
+      <c r="W17" s="1">
+        <f t="shared" ref="W17" si="47">(W15-W16)</f>
+        <v>0.3583110190248</v>
+      </c>
+      <c r="X17" s="1">
+        <f t="shared" ref="X17" si="48">(X15-X16)</f>
+        <v>-6.0494901088201658E-2</v>
+      </c>
+      <c r="AA17" s="1">
+        <f>(AA15-AA16)</f>
+        <v>1.0141824161029014</v>
+      </c>
+      <c r="AB17" s="1">
+        <f t="shared" ref="AB17" si="49">(AB15-AB16)</f>
+        <v>0.33811856566880039</v>
+      </c>
+      <c r="AC17" s="1">
+        <f t="shared" ref="AC17" si="50">(AC15-AC16)</f>
+        <v>-0.19173459882040156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34">
+      <c r="G18" s="12"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
       <c r="U18" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V18" s="12"/>
       <c r="W18" s="12"/>
       <c r="X18" s="12"/>
       <c r="Z18" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE18" t="s">
         <v>25</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:34">
-      <c r="A19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-      <c r="G19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="1">
-        <v>200</v>
-      </c>
-      <c r="I19" s="1">
-        <v>300</v>
-      </c>
-      <c r="J19" s="1">
-        <v>400</v>
-      </c>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
       <c r="K19" s="11"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1">
@@ -1813,32 +6093,28 @@
       </c>
     </row>
     <row r="20" spans="1:34">
-      <c r="A20" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="1">
-        <v>200</v>
-      </c>
-      <c r="C20" s="1">
-        <v>300</v>
-      </c>
-      <c r="D20" s="6">
-        <v>400</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0.26734693877551002</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0.58775510204081605</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0.81224489795918298</v>
-      </c>
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="F20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="K20" t="s">
+        <v>29</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="P20" t="s">
+        <v>30</v>
+      </c>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
       <c r="U20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V20" s="1">
         <v>0.26734693877551002</v>
@@ -1850,7 +6126,7 @@
         <v>0.81224489795918298</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA20" s="1">
         <v>3.5053303061224401E-2</v>
@@ -1862,7 +6138,7 @@
         <v>3.7163736491739499E-2</v>
       </c>
       <c r="AE20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF20" s="1">
         <v>57.411904761904701</v>
@@ -1875,32 +6151,44 @@
       </c>
     </row>
     <row r="21" spans="1:34">
-      <c r="A21" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="10">
-        <v>0.43877551020408101</v>
-      </c>
-      <c r="C21" s="10">
-        <v>0.76938775510204005</v>
-      </c>
-      <c r="D21" s="10">
-        <v>0.90204081632652999</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>15</v>
+      <c r="B21">
+        <v>200</v>
+      </c>
+      <c r="C21" s="1">
+        <v>300</v>
+      </c>
+      <c r="D21" s="1">
+        <v>400</v>
+      </c>
+      <c r="G21">
+        <v>200</v>
       </c>
       <c r="H21" s="1">
-        <v>0.25510204081632598</v>
+        <v>300</v>
       </c>
       <c r="I21" s="1">
-        <v>0.52857142857142803</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0.75714285714285701</v>
+        <v>400</v>
+      </c>
+      <c r="L21">
+        <v>200</v>
+      </c>
+      <c r="M21" s="1">
+        <v>300</v>
+      </c>
+      <c r="N21" s="1">
+        <v>400</v>
+      </c>
+      <c r="Q21">
+        <v>200</v>
+      </c>
+      <c r="R21" s="1">
+        <v>300</v>
+      </c>
+      <c r="S21" s="1">
+        <v>400</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V21" s="1">
         <v>0.25510204081632598</v>
@@ -1912,7 +6200,7 @@
         <v>0.75714285714285701</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA21" s="1">
         <v>3.3529955782312902E-2</v>
@@ -1924,7 +6212,7 @@
         <v>3.4046122538062801E-2</v>
       </c>
       <c r="AE21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF21" s="1">
         <v>58.801020408163197</v>
@@ -1937,33 +6225,56 @@
       </c>
     </row>
     <row r="22" spans="1:34">
-      <c r="A22" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="10">
-        <v>0.43469387755102001</v>
-      </c>
-      <c r="C22" s="10">
-        <v>0.787755102040816</v>
-      </c>
-      <c r="D22" s="10">
-        <v>0.88367346938775404</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>16</v>
+      <c r="A22">
+        <v>5.5</v>
+      </c>
+      <c r="B22" s="1">
+        <v>4.0816326530609959E-3</v>
+      </c>
+      <c r="C22" s="1">
+        <v>-1.8367346938775952E-2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.8367346938775952E-2</v>
+      </c>
+      <c r="F22">
+        <v>5.5</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1.0753804421769E-3</v>
       </c>
       <c r="H22" s="1">
-        <v>0.238775510204081</v>
+        <v>1.1496901846453009E-3</v>
       </c>
       <c r="I22" s="1">
-        <v>0.53877551020408099</v>
-      </c>
-      <c r="J22" s="1">
-        <v>0.80204081632653001</v>
-      </c>
-      <c r="K22" s="11"/>
+        <v>-4.7431529802400424E-4</v>
+      </c>
+      <c r="K22">
+        <v>5.5</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0.84217687074830394</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0.21586491739549984</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0.50121477162299755</v>
+      </c>
+      <c r="P22">
+        <v>5.5</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>4.0816326530609959E-3</v>
+      </c>
+      <c r="R22" s="1">
+        <v>-1.8367346938775952E-2</v>
+      </c>
+      <c r="S22" s="1">
+        <v>1.8367346938775952E-2</v>
+      </c>
       <c r="U22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V22" s="1">
         <v>0.238775510204081</v>
@@ -1975,7 +6286,7 @@
         <v>0.80204081632653001</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA22" s="1">
         <v>3.1564833333333299E-2</v>
@@ -1987,7 +6298,7 @@
         <v>3.6825898914803999E-2</v>
       </c>
       <c r="AE22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF22" s="1">
         <v>61.503401360544203</v>
@@ -2000,25 +6311,56 @@
       </c>
     </row>
     <row r="23" spans="1:34">
-      <c r="A23" s="5"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="6"/>
-      <c r="G23" s="1" t="s">
-        <v>17</v>
+      <c r="A23">
+        <v>10.5</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1.2244897959183987E-2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3.0612244897960106E-2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>4.4897959183674008E-2</v>
+      </c>
+      <c r="F23">
+        <v>10.5</v>
+      </c>
+      <c r="G23" s="1">
+        <v>5.7631428571430082E-4</v>
       </c>
       <c r="H23" s="1">
-        <v>0.23469387755102</v>
+        <v>1.3897008827340046E-3</v>
       </c>
       <c r="I23" s="1">
-        <v>0.495918367346938</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0.74693877551020305</v>
-      </c>
-      <c r="K23" s="11"/>
+        <v>2.4584692824748955E-3</v>
+      </c>
+      <c r="K23">
+        <v>10.5</v>
+      </c>
+      <c r="L23" s="1">
+        <v>-3.9887755102040998</v>
+      </c>
+      <c r="M23" s="1">
+        <v>1.7135001619694989</v>
+      </c>
+      <c r="N23" s="1">
+        <v>1.8800291545190007</v>
+      </c>
+      <c r="P23">
+        <v>10.5</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>1.2244897959183987E-2</v>
+      </c>
+      <c r="R23" s="1">
+        <v>3.0612244897960106E-2</v>
+      </c>
+      <c r="S23" s="1">
+        <v>4.4897959183674008E-2</v>
+      </c>
       <c r="U23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V23" s="1">
         <v>0.23469387755102</v>
@@ -2030,7 +6372,7 @@
         <v>0.74693877551020305</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA23" s="1">
         <v>3.34862057823129E-2</v>
@@ -2042,7 +6384,7 @@
         <v>3.6171975097181702E-2</v>
       </c>
       <c r="AE23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF23" s="1">
         <v>59.880272108843499</v>
@@ -2055,32 +6397,56 @@
       </c>
     </row>
     <row r="24" spans="1:34">
-      <c r="A24" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="1">
-        <v>200</v>
+      <c r="A24">
+        <v>13.5</v>
+      </c>
+      <c r="B24">
+        <v>1.2244898000000004E-2</v>
       </c>
       <c r="C24" s="1">
-        <v>300</v>
-      </c>
-      <c r="D24" s="6">
-        <v>400</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>1</v>
+        <v>5.9183673000000048E-2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>5.5102041000000046E-2</v>
+      </c>
+      <c r="F24">
+        <v>13.5</v>
+      </c>
+      <c r="G24">
+        <v>1.5233470000000013E-3</v>
       </c>
       <c r="H24" s="1">
-        <v>0.22653061224489701</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="I24" s="1">
-        <v>0.45306122448979502</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0.72448979591836704</v>
+        <v>3.1176130000000052E-3</v>
+      </c>
+      <c r="K24">
+        <v>13.5</v>
+      </c>
+      <c r="L24">
+        <v>-1.3891156500000008</v>
+      </c>
+      <c r="M24" s="1">
+        <v>-1.9487852299999986</v>
+      </c>
+      <c r="N24" s="1">
+        <v>1.1057418199999987</v>
+      </c>
+      <c r="P24">
+        <v>13.5</v>
+      </c>
+      <c r="Q24">
+        <v>1.2244898000000004E-2</v>
+      </c>
+      <c r="R24" s="1">
+        <v>5.9183673000000048E-2</v>
+      </c>
+      <c r="S24" s="1">
+        <v>5.5102041000000046E-2</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V24" s="1">
         <v>0.22653061224489701</v>
@@ -2092,7 +6458,7 @@
         <v>0.72448979591836704</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AA24" s="1">
         <v>3.2161787414965899E-2</v>
@@ -2104,7 +6470,7 @@
         <v>4.0012575445416199E-2</v>
       </c>
       <c r="AE24" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF24" s="1">
         <v>60.571428571428498</v>
@@ -2117,32 +6483,56 @@
       </c>
     </row>
     <row r="25" spans="1:34">
-      <c r="A25" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="10">
-        <v>3.84649800534499E-2</v>
-      </c>
-      <c r="C25" s="10">
-        <v>4.0319322197926798E-2</v>
-      </c>
-      <c r="D25" s="10">
-        <v>4.0391158041788097E-2</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>2</v>
+      <c r="A25">
+        <v>16.5</v>
+      </c>
+      <c r="B25">
+        <v>4.0816326530609959E-3</v>
+      </c>
+      <c r="C25" s="1">
+        <v>4.2857142857142982E-2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>5.5102040816326969E-2</v>
+      </c>
+      <c r="F25">
+        <v>16.5</v>
+      </c>
+      <c r="G25">
+        <v>-1.9213724489796011E-3</v>
       </c>
       <c r="H25" s="1">
-        <v>0.214285714285714</v>
+        <v>-5.6059620181410016E-4</v>
       </c>
       <c r="I25" s="1">
-        <v>0.41632653061224401</v>
-      </c>
-      <c r="J25" s="1">
-        <v>0.681632653061224</v>
+        <v>6.5392381762229695E-4</v>
+      </c>
+      <c r="K25">
+        <v>16.5</v>
+      </c>
+      <c r="L25">
+        <v>1.6231292517007034</v>
+      </c>
+      <c r="M25" s="1">
+        <v>-4.4792193067703998</v>
+      </c>
+      <c r="N25" s="1">
+        <v>4.8088759313202445E-2</v>
+      </c>
+      <c r="P25">
+        <v>16.5</v>
+      </c>
+      <c r="Q25">
+        <v>4.0816326530609959E-3</v>
+      </c>
+      <c r="R25" s="1">
+        <v>4.2857142857142982E-2</v>
+      </c>
+      <c r="S25" s="1">
+        <v>5.5102040816326969E-2</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V25" s="1">
         <v>0.214285714285714</v>
@@ -2154,7 +6544,7 @@
         <v>0.681632653061224</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA25" s="1">
         <v>3.1245977210884301E-2</v>
@@ -2166,7 +6556,7 @@
         <v>3.7819671469063801E-2</v>
       </c>
       <c r="AE25" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF25" s="1">
         <v>64.486054421768699</v>
@@ -2179,32 +6569,56 @@
       </c>
     </row>
     <row r="26" spans="1:34">
-      <c r="A26" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="10">
-        <v>3.7389599611273E-2</v>
-      </c>
-      <c r="C26" s="10">
-        <v>3.9169632013281497E-2</v>
-      </c>
-      <c r="D26" s="10">
-        <v>4.0865473339812101E-2</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>1</v>
+      <c r="A26">
+        <v>20.5</v>
+      </c>
+      <c r="B26">
+        <v>1.2244897959183015E-2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3.6734693877551017E-2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>4.2857142857143038E-2</v>
+      </c>
+      <c r="F26">
+        <v>20.5</v>
+      </c>
+      <c r="G26">
+        <v>9.1581020408159838E-4</v>
       </c>
       <c r="H26" s="1">
-        <v>0.23469387755102</v>
+        <v>2.4309609572399984E-3</v>
       </c>
       <c r="I26" s="1">
-        <v>0.44489795918367298</v>
-      </c>
-      <c r="J26" s="1">
-        <v>0.72653061224489801</v>
+        <v>2.1929039763523978E-3</v>
+      </c>
+      <c r="K26">
+        <v>20.5</v>
+      </c>
+      <c r="L26">
+        <v>-3.9146258503402009</v>
+      </c>
+      <c r="M26" s="1">
+        <v>-3.7954567541301998</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0.69130223517979772</v>
+      </c>
+      <c r="P26">
+        <v>20.5</v>
+      </c>
+      <c r="Q26">
+        <v>1.2244897959183015E-2</v>
+      </c>
+      <c r="R26" s="1">
+        <v>3.6734693877551017E-2</v>
+      </c>
+      <c r="S26" s="1">
+        <v>4.2857142857143038E-2</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V26" s="1">
         <v>0.23469387755102</v>
@@ -2216,7 +6630,7 @@
         <v>0.72653061224489801</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA26" s="1">
         <v>3.3939452380952299E-2</v>
@@ -2228,7 +6642,7 @@
         <v>3.9452691690962098E-2</v>
       </c>
       <c r="AE26" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF26" s="1">
         <v>57.690476190476097</v>
@@ -2241,24 +6655,56 @@
       </c>
     </row>
     <row r="27" spans="1:34">
-      <c r="A27" s="5"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="6"/>
-      <c r="G27" s="1" t="s">
-        <v>2</v>
+      <c r="A27">
+        <v>25.5</v>
+      </c>
+      <c r="B27">
+        <v>2.8571428571428997E-2</v>
+      </c>
+      <c r="C27" s="1">
+        <v>6.3265306122448961E-2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>4.2857142857143038E-2</v>
+      </c>
+      <c r="F27">
+        <v>25.5</v>
+      </c>
+      <c r="G27">
+        <v>3.4742244897958997E-3</v>
       </c>
       <c r="H27" s="1">
-        <v>0.20612244897959101</v>
+        <v>2.2172629089731027E-3</v>
       </c>
       <c r="I27" s="1">
-        <v>0.38163265306122401</v>
-      </c>
-      <c r="J27" s="1">
-        <v>0.68367346938775497</v>
+        <v>2.4411320051830054E-4</v>
+      </c>
+      <c r="K27">
+        <v>25.5</v>
+      </c>
+      <c r="L27">
+        <v>-7.6377551020409058</v>
+      </c>
+      <c r="M27" s="1">
+        <v>-5.4595724003888009</v>
+      </c>
+      <c r="N27" s="1">
+        <v>-1.0628036929057956</v>
+      </c>
+      <c r="P27">
+        <v>25.5</v>
+      </c>
+      <c r="Q27">
+        <v>2.8571428571428997E-2</v>
+      </c>
+      <c r="R27" s="1">
+        <v>6.3265306122448961E-2</v>
+      </c>
+      <c r="S27" s="1">
+        <v>4.2857142857143038E-2</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V27" s="1">
         <v>0.20612244897959101</v>
@@ -2270,7 +6716,7 @@
         <v>0.68367346938775497</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA27" s="1">
         <v>3.04652278911564E-2</v>
@@ -2282,7 +6728,7 @@
         <v>3.9208578490443798E-2</v>
       </c>
       <c r="AE27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF27" s="1">
         <v>65.328231292517003</v>
@@ -2295,20 +6741,56 @@
       </c>
     </row>
     <row r="28" spans="1:34">
-      <c r="A28" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="1">
-        <v>200</v>
-      </c>
-      <c r="C28" s="1">
-        <v>300</v>
-      </c>
-      <c r="D28" s="6">
-        <v>400</v>
+      <c r="A28">
+        <v>30.5</v>
+      </c>
+      <c r="B28">
+        <v>2.8571428571428997E-2</v>
+      </c>
+      <c r="C28">
+        <v>6.3265306122448961E-2</v>
+      </c>
+      <c r="D28">
+        <v>4.4897959183674008E-2</v>
+      </c>
+      <c r="F28">
+        <v>30.5</v>
+      </c>
+      <c r="G28">
+        <v>3.4712091836733988E-3</v>
+      </c>
+      <c r="H28">
+        <v>1.9896149497894977E-3</v>
+      </c>
+      <c r="I28">
+        <v>4.6999999999999997E-5</v>
+      </c>
+      <c r="K28">
+        <v>30.5</v>
+      </c>
+      <c r="L28">
+        <v>-7.6020408163265998</v>
+      </c>
+      <c r="M28">
+        <v>-5.4952866861030003</v>
+      </c>
+      <c r="N28">
+        <v>-1.1731049562682969</v>
+      </c>
+      <c r="P28">
+        <v>30.5</v>
+      </c>
+      <c r="Q28">
+        <v>2.8571428571428997E-2</v>
+      </c>
+      <c r="R28">
+        <v>6.3265306122448961E-2</v>
+      </c>
+      <c r="S28">
+        <v>4.4897959183674008E-2</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V28" s="1">
         <v>0.23469387755102</v>
@@ -2320,7 +6802,7 @@
         <v>0.72653061224489801</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA28" s="1">
         <v>3.3939452380952299E-2</v>
@@ -2332,7 +6814,7 @@
         <v>3.9452691690962098E-2</v>
       </c>
       <c r="AE28" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF28" s="10">
         <v>57.690476190476097</v>
@@ -2345,20 +6827,12 @@
       </c>
     </row>
     <row r="29" spans="1:34">
-      <c r="A29" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="10">
-        <v>42.052380952380901</v>
-      </c>
-      <c r="C29" s="10">
-        <v>32.261491739552902</v>
-      </c>
-      <c r="D29" s="10">
-        <v>31.269160997732399</v>
-      </c>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
       <c r="U29" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V29" s="1">
         <v>0.20612244897959101</v>
@@ -2370,7 +6844,7 @@
         <v>0.681632653061224</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA29" s="1">
         <v>3.0468243197278901E-2</v>
@@ -2382,7 +6856,7 @@
         <v>3.9405064399092901E-2</v>
       </c>
       <c r="AE29" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF29" s="10">
         <v>65.292517006802697</v>
@@ -2395,74 +6869,40 @@
       </c>
     </row>
     <row r="30" spans="1:34">
-      <c r="A30" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="10">
-        <v>41.210204081632597</v>
-      </c>
-      <c r="C30" s="10">
-        <v>32.045626822157402</v>
-      </c>
-      <c r="D30" s="10">
-        <v>30.767946226109402</v>
-      </c>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
       <c r="U30" s="12"/>
     </row>
     <row r="31" spans="1:34">
-      <c r="A31" s="5"/>
+      <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="6"/>
-      <c r="N31" t="s">
-        <v>27</v>
-      </c>
+      <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:34">
-      <c r="A32" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="1">
-        <v>200</v>
-      </c>
-      <c r="C32" s="1">
-        <v>300</v>
-      </c>
-      <c r="D32" s="6">
-        <v>400</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="10">
-        <v>13.8174684159378</v>
-      </c>
-      <c r="C33" s="10">
-        <v>13.950445416261701</v>
-      </c>
-      <c r="D33" s="10">
-        <v>13.870481049562599</v>
-      </c>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" ht="18.899999999999999" thickBot="1">
-      <c r="A34" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" s="10">
-        <v>13.6958074995595</v>
-      </c>
-      <c r="C34" s="10">
-        <v>13.8640589664699</v>
-      </c>
-      <c r="D34" s="10">
-        <v>14.157869726862</v>
-      </c>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/total evaluation.xlsx
+++ b/data/total evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shuto\workspace\ns-3-allinone\ns3.30\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AAA6FB-A2E0-423C-B877-4A26D0D62EA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844012EA-FA66-4915-B396-0BB722035D18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4224,16 +4224,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>391438</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>130481</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>208768</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>169625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>603728</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>143529</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>430582</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>52192</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4598,8 +4598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G9" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="AE40" sqref="AE40"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="AL27" sqref="AL27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
